--- a/biology/Histoire de la zoologie et de la botanique/Errol_Véla/Errol_Véla.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Errol_Véla/Errol_Véla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Errol_V%C3%A9la</t>
+          <t>Errol_Véla</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Errol Véla, né en 1975 à Marseille, est un botaniste et naturaliste français. Docteur en écologie végétale[1], il est spécialisé dans la taxonomie et la conservation des plantes vasculaires des écosystèmes méditerranéens, et notamment les Orchidées et autres géophytes. Il est enseignant-chercheur à la Faculté des Sciences de l'Université de Montpellier et au sein de l'unité mixte de recherche AMAP[2].
-Un hybride occasionnel, Ophrys x velae Duthilleul &amp; R.Martin (O. flammeola x O. lutea), lui est dédié[3]. Il est l'auteur ou co-auteur d'une vingtaine de créations ou combinaisons nomenclaturales nouvelles[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Errol Véla, né en 1975 à Marseille, est un botaniste et naturaliste français. Docteur en écologie végétale, il est spécialisé dans la taxonomie et la conservation des plantes vasculaires des écosystèmes méditerranéens, et notamment les Orchidées et autres géophytes. Il est enseignant-chercheur à la Faculté des Sciences de l'Université de Montpellier et au sein de l'unité mixte de recherche AMAP.
+Un hybride occasionnel, Ophrys x velae Duthilleul &amp; R.Martin (O. flammeola x O. lutea), lui est dédié. Il est l'auteur ou co-auteur d'une vingtaine de créations ou combinaisons nomenclaturales nouvelles.
 </t>
         </is>
       </c>
